--- a/biology/Botanique/Mikania_micrantha/Mikania_micrantha.xlsx
+++ b/biology/Botanique/Mikania_micrantha/Mikania_micrantha.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Mikania micrantha, aussi appelée liane américaine[1], est une espèce de plantes à fleurs dicotylédones de la famille des Asteraceae, tribu des Eupatorieae, originaire des régions tropicales d'Amérique centrale et d'Amérique du Sud. L'espèce fait partie des 100 pires espèces envahissantes selon l'UICN[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mikania micrantha, aussi appelée liane américaine, est une espèce de plantes à fleurs dicotylédones de la famille des Asteraceae, tribu des Eupatorieae, originaire des régions tropicales d'Amérique centrale et d'Amérique du Sud. L'espèce fait partie des 100 pires espèces envahissantes selon l'UICN.
 </t>
         </is>
       </c>
@@ -513,14 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aspect général
-Mikania micrantha est une plante herbacée lianescente vivace semi-ligneuse, volubile, grimpante ou rampante, à croissance rapide ; chaque plant peut coloniser un espace de 25 mètres carrés en seulement un mois[3].
-Feuilles
-Les feuilles sont simples, opposées et pétiolées. Le limbe est triangulaire, avec une base cordée et une apex aigu. La marge est ondulée et légèrement dentée[3].
-Fleurs
-Les inflorescences se composent d'une multitude de petits capitules blanchâtres constituées uniquement de fleurs tubulées[3].
-Fruits
-Les fruits sont des akènes noirs de 2 millimètres de long comportant un pappus d'une trentaine de soies blanches. Chaque plant peut produire jusqu'à 40 000 graines viables par an[3].
+          <t>Aspect général</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mikania micrantha est une plante herbacée lianescente vivace semi-ligneuse, volubile, grimpante ou rampante, à croissance rapide ; chaque plant peut coloniser un espace de 25 mètres carrés en seulement un mois.
 </t>
         </is>
       </c>
@@ -546,17 +557,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Répartition</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Originaire d'Amérique Centrale et du Sud, Mikania micrantha préfère les zones à humidité élevée, bien éclairées et à sol fertile, riche en matière organique.
-Caractère envahissant
-Elle est considérée comme une plante envahissante notamment en Asie (Chine, Inde), à Maurice, dans la zone Australasienne, et en Nouvelle-Calédonie où elle a été introduite en 1964 dans la zone Dumbéa-Païta[4].
-Législation
-Aux États-Unis, elle est déclarée Federal noxious weed (mauvaise herbe nuisible fédérale)[5].
-En Nouvelle-Calédonie, le Code de l'environnement de la Province Sud interdit l’introduction dans la nature de cette espèce ainsi que sa production, son transport, son utilisation, son colportage, sa cession, sa mise en vente, sa vente ou son achat[6].
+          <t>Feuilles</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les feuilles sont simples, opposées et pétiolées. Le limbe est triangulaire, avec une base cordée et une apex aigu. La marge est ondulée et légèrement dentée.
 </t>
         </is>
       </c>
@@ -582,12 +594,196 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Fleurs</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les inflorescences se composent d'une multitude de petits capitules blanchâtres constituées uniquement de fleurs tubulées.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Mikania_micrantha</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mikania_micrantha</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Fruits</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les fruits sont des akènes noirs de 2 millimètres de long comportant un pappus d'une trentaine de soies blanches. Chaque plant peut produire jusqu'à 40 000 graines viables par an.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Mikania_micrantha</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mikania_micrantha</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Répartition</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Originaire d'Amérique Centrale et du Sud, Mikania micrantha préfère les zones à humidité élevée, bien éclairées et à sol fertile, riche en matière organique.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Mikania_micrantha</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mikania_micrantha</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Répartition</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Caractère envahissant</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle est considérée comme une plante envahissante notamment en Asie (Chine, Inde), à Maurice, dans la zone Australasienne, et en Nouvelle-Calédonie où elle a été introduite en 1964 dans la zone Dumbéa-Païta.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Mikania_micrantha</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mikania_micrantha</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Répartition</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Législation</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aux États-Unis, elle est déclarée Federal noxious weed (mauvaise herbe nuisible fédérale).
+En Nouvelle-Calédonie, le Code de l'environnement de la Province Sud interdit l’introduction dans la nature de cette espèce ainsi que sa production, son transport, son utilisation, son colportage, sa cession, sa mise en vente, sa vente ou son achat.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Mikania_micrantha</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mikania_micrantha</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Liste des formes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (18 septembre 2016)[7] :
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (18 septembre 2016) :
 forme Mikania micrantha f. micrantha</t>
         </is>
       </c>
